--- a/xlsx/青春期前_intext.xlsx
+++ b/xlsx/青春期前_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
   <si>
     <t>青春期前</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%9A%84%E6%88%90%E9%95%B7</t>
   </si>
   <si>
-    <t>人的成長</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_青春期前</t>
+    <t>人的成长</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_青春期前</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Human_embryogenesis</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%8E%E5%85%92</t>
   </si>
   <si>
-    <t>胎兒</t>
+    <t>胎儿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AC%B0%E5%85%92</t>
   </si>
   <si>
-    <t>嬰兒</t>
+    <t>婴儿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BC%E7%AB%A5</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%A3%AF%E5%B9%B4</t>
   </si>
   <si>
-    <t>青壯年</t>
+    <t>青壮年</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adult_development</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E9%99%84%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>依附理論</t>
+    <t>依附理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%80%81%E7%B3%BB%E7%BB%9F%E7%90%86%E8%AE%BA</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%BF%83%E7%90%86%E7%99%BC%E5%B1%95</t>
   </si>
   <si>
-    <t>性心理發展</t>
+    <t>性心理发展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E5%B0%94%E4%BC%AF%E6%A0%BC%E9%81%93%E5%BE%B7%E5%8F%91%E5%B1%95%E9%98%B6%E6%AE%B5</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%99%BC%E5%B1%95%E8%AB%96</t>
   </si>
   <si>
-    <t>認知發展論</t>
+    <t>认知发展论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cultural-historical_psychology</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9</t>
@@ -287,9 +287,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5</t>
   </si>
   <si>
-    <t>兒童</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA</t>
   </si>
   <si>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%80%A7%E5%BE%B5</t>
   </si>
   <si>
-    <t>第二性徵</t>
+    <t>第二性征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A4%AA%E9%BB%91%E7%B4%A0</t>
@@ -383,13 +380,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%88%86%E6%B3%8C</t>
   </si>
   <si>
-    <t>內分泌</t>
+    <t>内分泌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%8D%B7%E7%88%BE%E8%92%99</t>
   </si>
   <si>
-    <t>環境荷爾蒙</t>
+    <t>环境荷尔蒙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E8%A7%86</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9E%82%E9%AB%94</t>
   </si>
   <si>
-    <t>垂體</t>
+    <t>垂体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%8C%E6%BF%80%E7%B4%A0</t>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E7%94%9F%E6%AE%96%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>女性生殖系統</t>
+    <t>女性生殖系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B4%E5%9B%8A</t>
@@ -521,13 +518,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B0%91%E5%B9%B4%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>青少年時期</t>
+    <t>青少年时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A9%E6%81%8B</t>
@@ -2201,7 +2198,7 @@
         <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="G45" t="n">
         <v>4</v>
@@ -2227,10 +2224,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2256,10 +2253,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>5</v>
@@ -2285,10 +2282,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2314,10 +2311,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2343,10 +2340,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2372,10 +2369,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2401,10 +2398,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2430,10 +2427,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2459,10 +2456,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2488,10 +2485,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2517,10 +2514,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2546,10 +2543,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2575,10 +2572,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -2604,10 +2601,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2633,10 +2630,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" t="s">
         <v>111</v>
-      </c>
-      <c r="F60" t="s">
-        <v>112</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2662,10 +2659,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>5</v>
@@ -2691,10 +2688,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2720,10 +2717,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2749,10 +2746,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2778,10 +2775,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -2807,10 +2804,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>4</v>
@@ -2836,10 +2833,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>8</v>
@@ -2865,10 +2862,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -2894,10 +2891,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2923,10 +2920,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2952,10 +2949,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2981,10 +2978,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3010,10 +3007,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3039,10 +3036,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3068,10 +3065,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>5</v>
@@ -3097,10 +3094,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3126,10 +3123,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>5</v>
@@ -3155,10 +3152,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3184,10 +3181,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3213,10 +3210,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3242,10 +3239,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3271,10 +3268,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3300,10 +3297,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3329,10 +3326,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3358,10 +3355,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3387,10 +3384,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3416,10 +3413,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3445,10 +3442,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3474,10 +3471,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -3503,10 +3500,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3532,10 +3529,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>4</v>
@@ -3561,10 +3558,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
